--- a/Equations.xlsx
+++ b/Equations.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ENAE100-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E59750-B049-4BCE-AE72-9414C3B243E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E3348C-5CF7-41CA-B043-C34CD987AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atmospheric Density vs Altitude" sheetId="1" r:id="rId1"/>
     <sheet name="Cross-Sectional Area" sheetId="2" r:id="rId2"/>
+    <sheet name="Thrust Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Mass vs Time" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Formula</t>
   </si>
@@ -128,6 +130,45 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Average Thrust</t>
+  </si>
+  <si>
+    <t>Thrust Time</t>
+  </si>
+  <si>
+    <t>165 N</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>Assuming a linear expulsion of mass in terms of time:</t>
+  </si>
+  <si>
+    <t>Y-intercept: Intitial Weight</t>
+  </si>
+  <si>
+    <t>Dry Mass at t=1</t>
+  </si>
+  <si>
+    <t>90g</t>
+  </si>
+  <si>
+    <t>202g</t>
+  </si>
+  <si>
+    <t>y=90</t>
+  </si>
+  <si>
+    <t>202-(202/90)t</t>
+  </si>
+  <si>
+    <t>Equation on (0&lt;t&lt;1)</t>
+  </si>
+  <si>
+    <t>Equation on t&gt;1</t>
   </si>
 </sst>
 </file>
@@ -923,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B61F7-648C-436B-B30A-59A5AA90082D}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -978,4 +1019,91 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20901E0-FA2F-4DFF-9B63-02A62DE89EB5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837B8624-43FE-4AEA-A9F6-50B735D0E0D3}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="42.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Equations.xlsx
+++ b/Equations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ENAE100-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E3348C-5CF7-41CA-B043-C34CD987AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD76DE-1AA4-44C7-8BDA-383526112E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atmospheric Density vs Altitude" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Formula</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Equation on t&gt;1</t>
+  </si>
+  <si>
+    <t>These equations are true for the motor itself. Add the mass of the rest of the rocket to determine the actual function.</t>
   </si>
 </sst>
 </file>
@@ -377,19 +380,10 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,24 +403,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -470,6 +460,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -477,18 +476,22 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -505,7 +508,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5D49EB9-A257-4CC7-9C03-6983A8DA66FF}" name="Table1" displayName="Table1" ref="E1:M4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5D49EB9-A257-4CC7-9C03-6983A8DA66FF}" name="Table1" displayName="Table1" ref="E1:M4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="E1:M4" xr:uid="{F5D49EB9-A257-4CC7-9C03-6983A8DA66FF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{933A7A9E-7ABC-48C7-8FA4-1A42097D8D85}" name="Column1"/>
@@ -515,8 +518,8 @@
     <tableColumn id="5" xr3:uid="{5DDAADE2-1A9A-41FE-9529-7ED5B5E83F15}" name="Column4"/>
     <tableColumn id="6" xr3:uid="{43E8FFB7-D2D7-4C3C-A4D3-1C1C5A6C7D5C}" name="Column5"/>
     <tableColumn id="7" xr3:uid="{2FF51178-AF69-471E-9F03-070B29BB0BBE}" name="Column6"/>
-    <tableColumn id="8" xr3:uid="{4B7B89B0-8174-40BF-8305-EEC55EA4A685}" name="Column7" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{9D775F54-71C7-4544-93B3-0E9D8EC358C9}" name="Column8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4B7B89B0-8174-40BF-8305-EEC55EA4A685}" name="Column7" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{9D775F54-71C7-4544-93B3-0E9D8EC358C9}" name="Column8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -807,142 +810,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="16">
         <f>(K4/(G4*J4))*(M4)</f>
         <v>1.2250123632318979</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>101325</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>288.14999999999998</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>9.8066499999999994</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>8.3144600000000004</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>2.89652E-2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14">
         <f>G4-(I4*F7)</f>
         <v>288.14999999999998</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <f>F4*(1-((I4*F7)/G4))^(((H4*K4)/(J4*I4))-1)</f>
         <v>101325</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -971,15 +974,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -1025,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20901E0-FA2F-4DFF-9B63-02A62DE89EB5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1054,9 +1057,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837B8624-43FE-4AEA-A9F6-50B735D0E0D3}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1103,6 +1106,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
